--- a/PML_Base_PLC_Project/PLC_PML/Base/01_PML/98_EventDefinitions/PMLBase_TMCTemplate.xlsx
+++ b/PML_Base_PLC_Project/PLC_PML/Base/01_PML/98_EventDefinitions/PMLBase_TMCTemplate.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\markl.BECKHOFF\Source\repos\PML_Base_PLC\PML_Base_PLC_Project\PLC_PML\Base\01_PML\98_EventDefinitions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Beckhoff_Work\github\PML_Base_PLC_BenS_Development\PML_Base_PLC_Project\PLC_PML\Base\01_PML\98_EventDefinitions\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9798694-E8D4-4FFA-847D-0CC80E3D3926}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="4"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Translations" sheetId="2" r:id="rId1"/>
@@ -22,7 +23,7 @@
     <sheet name="Helper" sheetId="4" state="hidden" r:id="rId8"/>
     <sheet name="EventClassHashTable" sheetId="13" state="hidden" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,8 +41,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="225">
   <si>
     <t>Key</t>
   </si>
@@ -280,15 +303,9 @@
     <t>DT_EventClass_Axis</t>
   </si>
   <si>
-    <t>HardwareError</t>
-  </si>
-  <si>
     <t>DT_Equipment_Event_HardwareError</t>
   </si>
   <si>
-    <t>SoftwareError</t>
-  </si>
-  <si>
     <t>DT_Equipment_Event_SoftwareError</t>
   </si>
   <si>
@@ -361,9 +378,6 @@
     <t>{0} - Entered "Holding" PackML State</t>
   </si>
   <si>
-    <t>{0} - Entered "Held" PackML State</t>
-  </si>
-  <si>
     <t>{0} - Entered "Unholding" PackML State</t>
   </si>
   <si>
@@ -661,33 +675,6 @@
     <t>DT_PMLAlarms_Event_ModeCommandInvalid</t>
   </si>
   <si>
-    <t>Entered Starting State</t>
-  </si>
-  <si>
-    <t>Entered Execute State</t>
-  </si>
-  <si>
-    <t>Entered Completing State</t>
-  </si>
-  <si>
-    <t>Entered State Complete</t>
-  </si>
-  <si>
-    <t>Entered Resetting State</t>
-  </si>
-  <si>
-    <t>Entered Idle State</t>
-  </si>
-  <si>
-    <t>Entered Held State</t>
-  </si>
-  <si>
-    <t>Entered Unholding State</t>
-  </si>
-  <si>
-    <t>Entered Suspending State</t>
-  </si>
-  <si>
     <t>{318E28D7-931B-4387-BE42-2C290BB30B5D}</t>
   </si>
   <si>
@@ -697,96 +684,6 @@
     <t>{4F57CEF3-B15E-4A32-9295-AC9D8CC8F599}</t>
   </si>
   <si>
-    <t>Entered Holding State</t>
-  </si>
-  <si>
-    <t>Entered Suspended State</t>
-  </si>
-  <si>
-    <t>Entered Unsuspending State</t>
-  </si>
-  <si>
-    <t>Entered Stopping State</t>
-  </si>
-  <si>
-    <t>Entered Stopped State</t>
-  </si>
-  <si>
-    <t>Entered Aborting State</t>
-  </si>
-  <si>
-    <t>Entered Aborted State</t>
-  </si>
-  <si>
-    <t>Entered Clearing State</t>
-  </si>
-  <si>
-    <t>Entered Production Mode</t>
-  </si>
-  <si>
-    <t>Entered Maintenance Mode</t>
-  </si>
-  <si>
-    <t>Entered Manual Mode</t>
-  </si>
-  <si>
-    <t>Entered Custome Mode 1</t>
-  </si>
-  <si>
-    <t>Entered Custome Mode 2</t>
-  </si>
-  <si>
-    <t>Entered Custome Mode 3</t>
-  </si>
-  <si>
-    <t>Entered Custome Mode 4</t>
-  </si>
-  <si>
-    <t>Entered Custome Mode 5</t>
-  </si>
-  <si>
-    <t>Entered Custome Mode 6</t>
-  </si>
-  <si>
-    <t>Entered Custome Mode 7</t>
-  </si>
-  <si>
-    <t>Entered Custome Mode 8</t>
-  </si>
-  <si>
-    <t>Entered an Undefined State</t>
-  </si>
-  <si>
-    <t>Entered an Invalid mode</t>
-  </si>
-  <si>
-    <t>Invalid State Commanded</t>
-  </si>
-  <si>
-    <t>Invalid Mode Commanded</t>
-  </si>
-  <si>
-    <t>Boot Complete</t>
-  </si>
-  <si>
-    <t>Air Not OK</t>
-  </si>
-  <si>
-    <t>Power Not OK</t>
-  </si>
-  <si>
-    <t>Hardware Error</t>
-  </si>
-  <si>
-    <t>Software Error</t>
-  </si>
-  <si>
-    <t>Alpha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bravo </t>
-  </si>
-  <si>
     <t>{AABE7704-115E-4F72-B2DF-85A83B581123}</t>
   </si>
   <si>
@@ -794,12 +691,60 @@
   </si>
   <si>
     <t>{B585D2B1-B892-4171-A7A2-FFB1B437DDB8}</t>
+  </si>
+  <si>
+    <t>{230D3874-DE44-4B09-BA00-2B00FD415884}</t>
+  </si>
+  <si>
+    <t>{831879A0-B2DE-46FA-8A74-10B8AE808447}</t>
+  </si>
+  <si>
+    <t>{B01B9830-7796-4D1D-A8CA-1293F0F942AA}</t>
+  </si>
+  <si>
+    <t>ComponentError</t>
+  </si>
+  <si>
+    <t>DT_BaseAlarms_Event_ComponentError</t>
+  </si>
+  <si>
+    <t>SubmoduleAborted</t>
+  </si>
+  <si>
+    <t>DT_BaseAlarms_Event_SubmoduleAborted</t>
+  </si>
+  <si>
+    <t>{0} - Submodule aborted during operation - Submodule Name: {1}</t>
+  </si>
+  <si>
+    <t>{0} - Component error in module during operation - Component Name: {1}</t>
+  </si>
+  <si>
+    <t>{0} - Entered "Held" PackML State - Manual intervention required for recovery</t>
+  </si>
+  <si>
+    <t>{F7E178D7-0198-484B-BDDE-A253FCED3036}</t>
+  </si>
+  <si>
+    <t>{B406AB9F-5F17-445A-97D6-FD8E67C05C5D}</t>
+  </si>
+  <si>
+    <t>DT_BaseAlarms_Event_InvalidInterface</t>
+  </si>
+  <si>
+    <t>{0} - Module Attempted to access an invalid interface - Variable Name: {1}</t>
+  </si>
+  <si>
+    <t>InvalidInterface</t>
+  </si>
+  <si>
+    <t>{DD613D9B-2D36-4D21-9065-3987280E65BE}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -835,8 +780,43 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC8C8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC8C8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC8C8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC8C8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFC8C8"/>
+      <color rgb="FFFF6464"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -849,123 +829,123 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Translations" displayName="Translations" ref="A1:K48" totalsRowShown="0">
-  <autoFilter ref="A1:K48"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Translations" displayName="Translations" ref="A1:K48" totalsRowShown="0">
+  <autoFilter ref="A1:K48" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="11">
-    <tableColumn id="1" name="Key"/>
-    <tableColumn id="2" name="German (1031)"/>
-    <tableColumn id="3" name="English (1033)"/>
-    <tableColumn id="4" name="French (1036)"/>
-    <tableColumn id="5" name="Spanish (1034)"/>
-    <tableColumn id="6" name="Dutch (1043)"/>
-    <tableColumn id="7" name="Turkish (1055)"/>
-    <tableColumn id="8" name="Czech (1029)"/>
-    <tableColumn id="9" name="Polish (1045)"/>
-    <tableColumn id="10" name="Russian (1049)"/>
-    <tableColumn id="11" name="Serbian (3098)"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Key"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="German (1031)"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="English (1033)"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="French (1036)"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Spanish (1034)"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Dutch (1043)"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Turkish (1055)"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Czech (1029)"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Polish (1045)"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Russian (1049)"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Serbian (3098)"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="EventClasses" displayName="EventClasses" ref="A1:E35" totalsRowShown="0">
-  <autoFilter ref="A1:E35"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="EventClasses" displayName="EventClasses" ref="A1:E35" totalsRowShown="0">
+  <autoFilter ref="A1:E35" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Name"/>
-    <tableColumn id="2" name="Namespace"/>
-    <tableColumn id="3" name="Guid"/>
-    <tableColumn id="4" name="Display Text"/>
-    <tableColumn id="5" name="Comment"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Name"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Namespace"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Guid"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Display Text"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Comment"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="System" displayName="System" ref="A1:E5" totalsRowShown="0">
-  <autoFilter ref="A1:E5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="System" displayName="System" ref="A1:E5" totalsRowShown="0">
+  <autoFilter ref="A1:E5" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Name"/>
-    <tableColumn id="2" name="Id"/>
-    <tableColumn id="3" name="Severity"/>
-    <tableColumn id="4" name="Display Text"/>
-    <tableColumn id="5" name="Comment"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Name"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Id"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Severity"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Display Text"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Comment"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="BaseAlarms" displayName="BaseAlarms" ref="A1:E7" totalsRowShown="0">
-  <autoFilter ref="A1:E7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="BaseAlarms" displayName="BaseAlarms" ref="A1:E7" totalsRowShown="0">
+  <autoFilter ref="A1:E7" xr:uid="{00000000-0009-0000-0100-00000E000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Name"/>
-    <tableColumn id="2" name="Id"/>
-    <tableColumn id="3" name="Severity"/>
-    <tableColumn id="4" name="Display Text"/>
-    <tableColumn id="5" name="Comment"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Name"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Id"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Severity"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Display Text"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Comment"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="PMLAlarms" displayName="PMLAlarms" ref="A1:E34" totalsRowShown="0">
-  <autoFilter ref="A1:E34"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="PMLAlarms" displayName="PMLAlarms" ref="A1:E35" totalsRowShown="0">
+  <autoFilter ref="A1:E35" xr:uid="{00000000-0009-0000-0100-00000D000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Name"/>
-    <tableColumn id="2" name="Id"/>
-    <tableColumn id="3" name="Severity"/>
-    <tableColumn id="4" name="Display Text"/>
-    <tableColumn id="5" name="Comment"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Name"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Id"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Severity"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Display Text"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Comment"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="TemplateEventClass" displayName="TemplateEventClass" ref="A1:E5" totalsRowShown="0">
-  <autoFilter ref="A1:E5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="TemplateEventClass" displayName="TemplateEventClass" ref="A1:E5" totalsRowShown="0">
+  <autoFilter ref="A1:E5" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Name"/>
-    <tableColumn id="2" name="Id"/>
-    <tableColumn id="3" name="Severity"/>
-    <tableColumn id="4" name="Display Text"/>
-    <tableColumn id="5" name="Comment"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Name"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Id"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="Severity"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="Display Text"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="Comment"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="HiddenDataTypes" displayName="HiddenDataTypes" ref="A1:B11" totalsRowShown="0">
-  <autoFilter ref="A1:B11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="HiddenDataTypes" displayName="HiddenDataTypes" ref="A1:B17" totalsRowShown="0">
+  <autoFilter ref="A1:B17" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="EventClass"/>
-    <tableColumn id="2" name="Guid"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="EventClass"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="Guid"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Helper" displayName="Helper" ref="A1:A6" totalsRowShown="0">
-  <autoFilter ref="A1:A6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Helper" displayName="Helper" ref="A1:A6" totalsRowShown="0">
+  <autoFilter ref="A1:A6" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="Severity"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="Severity"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="EventClassHashTable" displayName="EventClassHashTable" ref="A1:C11" totalsRowShown="0">
-  <autoFilter ref="A1:C11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="EventClassHashTable" displayName="EventClassHashTable" ref="A1:C11" totalsRowShown="0">
+  <autoFilter ref="A1:C11" xr:uid="{00000000-0009-0000-0100-00000C000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Name"/>
-    <tableColumn id="2" name="EventClassHash"/>
-    <tableColumn id="3" name="TranslationHash"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="Name"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="EventClassHash"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="TranslationHash"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1267,21 +1247,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A14" sqref="A14:A45"/>
+      <selection pane="bottomRight" activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="45" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="71.5703125" customWidth="1"/>
     <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="57.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
@@ -1353,10 +1333,10 @@
         <v>78</v>
       </c>
       <c r="C4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E4" t="s">
         <v>86</v>
-      </c>
-      <c r="E4" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -1364,10 +1344,10 @@
         <v>42</v>
       </c>
       <c r="C5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -1375,21 +1355,21 @@
         <v>44</v>
       </c>
       <c r="C6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -1397,10 +1377,10 @@
         <v>39</v>
       </c>
       <c r="C8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -1408,10 +1388,10 @@
         <v>40</v>
       </c>
       <c r="C9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -1419,10 +1399,10 @@
         <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E10" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -1430,384 +1410,408 @@
         <v>36</v>
       </c>
       <c r="C11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E11" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C12" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E12" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C13" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E13" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C14" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E14" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C15" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E15" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C16" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E16" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C17" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E17" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C18" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E18" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C19" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E19" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C20" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E20" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C21" t="s">
-        <v>106</v>
+        <v>218</v>
       </c>
       <c r="E21" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C22" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E22" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C23" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E23" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C24" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E24" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C25" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E25" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C26" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E26" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C27" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E27" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C28" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E28" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C29" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E29" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C30" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E30" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C31" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E31" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C32" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E32" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C33" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E33" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C34" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E34" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C35" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E35" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C36" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E36" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C37" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E37" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C38" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E38" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C39" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E39" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C40" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E40" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C41" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E41" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C42" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E42" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C43" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E43" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C44" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E44" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C45" t="s">
+        <v>144</v>
+      </c>
+      <c r="E45" t="s">
         <v>147</v>
       </c>
-      <c r="E45" t="s">
-        <v>150</v>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>215</v>
+      </c>
+      <c r="C46" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>213</v>
+      </c>
+      <c r="C47" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>221</v>
+      </c>
+      <c r="C48" t="s">
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -1820,7 +1824,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1858,7 +1862,7 @@
         <v>37</v>
       </c>
       <c r="C2" t="s">
-        <v>248</v>
+        <v>209</v>
       </c>
       <c r="D2" t="s">
         <v>38</v>
@@ -1866,24 +1870,24 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C3" t="s">
-        <v>249</v>
+        <v>224</v>
       </c>
       <c r="D3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C4" t="s">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="D4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -1895,14 +1899,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomRight" activeCell="D3" sqref="D3:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1932,7 +1936,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1941,15 +1945,15 @@
         <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -1957,8 +1961,9 @@
       <c r="C3" t="s">
         <v>18</v>
       </c>
-      <c r="D3" t="s">
-        <v>241</v>
+      <c r="D3" t="str" cm="1">
+        <f t="array" aca="1" ref="D3" ca="1">_xlfn.CONCAT("DT_", RIGHT(CELL("filename",P1),LEN(CELL("filename",P1))-FIND("]",CELL("filename",P1))),"_Event_", System[[#This Row],[Name]])</f>
+        <v>DT_System_Event_BootComplete</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1971,8 +1976,9 @@
       <c r="C4" t="s">
         <v>21</v>
       </c>
-      <c r="D4" t="s">
-        <v>242</v>
+      <c r="D4" t="str" cm="1">
+        <f t="array" aca="1" ref="D4" ca="1">_xlfn.CONCAT("DT_", RIGHT(CELL("filename",P2),LEN(CELL("filename",P2))-FIND("]",CELL("filename",P2))),"_Event_", System[[#This Row],[Name]])</f>
+        <v>DT_System_Event_AirNotOK</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1985,8 +1991,9 @@
       <c r="C5" t="s">
         <v>21</v>
       </c>
-      <c r="D5" t="s">
-        <v>243</v>
+      <c r="D5" t="str" cm="1">
+        <f t="array" aca="1" ref="D5" ca="1">_xlfn.CONCAT("DT_", RIGHT(CELL("filename",P3),LEN(CELL("filename",P3))-FIND("]",CELL("filename",P3))),"_Event_", System[[#This Row],[Name]])</f>
+        <v>DT_System_Event_PowerNotOK</v>
       </c>
     </row>
   </sheetData>
@@ -1995,9 +2002,26 @@
     <tablePart r:id="rId1"/>
   </tableParts>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="1" id="{2ECE3CF8-265E-4AC5-9132-24DE7CA038FD}">
+            <xm:f>IF(IFERROR(MATCH(D3,Translations!$A$2:$A$1000,0),FALSE),FALSE,TRUE)</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC8C8"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>D3:D5</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000000000000}">
           <x14:formula1>
             <xm:f>Helper!$A$1:$A$6</xm:f>
           </x14:formula1>
@@ -2010,14 +2034,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2047,7 +2071,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -2056,66 +2080,55 @@
         <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>214</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" t="s">
-        <v>242</v>
+        <v>20</v>
+      </c>
+      <c r="D3" t="str" cm="1">
+        <f t="array" aca="1" ref="D3" ca="1">_xlfn.CONCAT("DT_", RIGHT(CELL("filename",P5),LEN(CELL("filename",P5))-FIND("]",CELL("filename",P5))),"_Event_", BaseAlarms[[#This Row],[Name]])</f>
+        <v>DT_BaseAlarms_Event_SubmoduleAborted</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>212</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" t="s">
-        <v>243</v>
+        <v>20</v>
+      </c>
+      <c r="D4" t="str" cm="1">
+        <f t="array" aca="1" ref="D4" ca="1">_xlfn.CONCAT("DT_", RIGHT(CELL("filename",P6),LEN(CELL("filename",P6))-FIND("]",CELL("filename",P6))),"_Event_", BaseAlarms[[#This Row],[Name]])</f>
+        <v>DT_BaseAlarms_Event_ComponentError</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>79</v>
+        <v>223</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>81</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" t="s">
-        <v>245</v>
+        <v>21</v>
+      </c>
+      <c r="D5" t="str" cm="1">
+        <f t="array" aca="1" ref="D5" ca="1">_xlfn.CONCAT("DT_", RIGHT(CELL("filename",P7),LEN(CELL("filename",P7))-FIND("]",CELL("filename",P7))),"_Event_", BaseAlarms[[#This Row],[Name]])</f>
+        <v>DT_BaseAlarms_Event_InvalidInterface</v>
       </c>
     </row>
   </sheetData>
@@ -2124,13 +2137,30 @@
     <tablePart r:id="rId1"/>
   </tableParts>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="2" id="{97D73697-1095-4F94-8FA2-0416EABF12FF}">
+            <xm:f>IF(IFERROR(MATCH(D3,Translations!$A$2:$A$1000,0),FALSE),FALSE,TRUE)</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC8C8"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>D3:D5</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0300-000000000000}">
           <x14:formula1>
             <xm:f>Helper!$A$1:$A$6</xm:f>
           </x14:formula1>
-          <xm:sqref>C1:C7</xm:sqref>
+          <xm:sqref>C1:C6</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2139,14 +2169,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D38" sqref="D38"/>
+      <selection pane="bottomRight" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2177,7 +2207,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -2186,10 +2216,10 @@
         <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -2202,8 +2232,9 @@
       <c r="C3" t="s">
         <v>18</v>
       </c>
-      <c r="D3" t="s">
-        <v>206</v>
+      <c r="D3" t="str" cm="1">
+        <f t="array" aca="1" ref="D3" ca="1">_xlfn.CONCAT("DT_", RIGHT(CELL("filename",P1),LEN(CELL("filename",P1))-FIND("]",CELL("filename",P1))),"_Event_", PMLAlarms[[#This Row],[Name]])</f>
+        <v>DT_PMLAlarms_Event_StateStartingEnter</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -2216,8 +2247,9 @@
       <c r="C4" t="s">
         <v>18</v>
       </c>
-      <c r="D4" t="s">
-        <v>207</v>
+      <c r="D4" t="str" cm="1">
+        <f t="array" aca="1" ref="D4" ca="1">_xlfn.CONCAT("DT_", RIGHT(CELL("filename",P2),LEN(CELL("filename",P2))-FIND("]",CELL("filename",P2))),"_Event_", PMLAlarms[[#This Row],[Name]])</f>
+        <v>DT_PMLAlarms_Event_StateExecuteEnter</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -2230,8 +2262,9 @@
       <c r="C5" t="s">
         <v>18</v>
       </c>
-      <c r="D5" t="s">
-        <v>208</v>
+      <c r="D5" t="str" cm="1">
+        <f t="array" aca="1" ref="D5" ca="1">_xlfn.CONCAT("DT_", RIGHT(CELL("filename",P3),LEN(CELL("filename",P3))-FIND("]",CELL("filename",P3))),"_Event_", PMLAlarms[[#This Row],[Name]])</f>
+        <v>DT_PMLAlarms_Event_StateCompletingEnter</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -2244,8 +2277,9 @@
       <c r="C6" t="s">
         <v>18</v>
       </c>
-      <c r="D6" t="s">
-        <v>209</v>
+      <c r="D6" t="str" cm="1">
+        <f t="array" aca="1" ref="D6" ca="1">_xlfn.CONCAT("DT_", RIGHT(CELL("filename",P4),LEN(CELL("filename",P4))-FIND("]",CELL("filename",P4))),"_Event_", PMLAlarms[[#This Row],[Name]])</f>
+        <v>DT_PMLAlarms_Event_StateCompleteEnter</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -2258,8 +2292,9 @@
       <c r="C7" t="s">
         <v>18</v>
       </c>
-      <c r="D7" t="s">
-        <v>210</v>
+      <c r="D7" t="str" cm="1">
+        <f t="array" aca="1" ref="D7" ca="1">_xlfn.CONCAT("DT_", RIGHT(CELL("filename",P5),LEN(CELL("filename",P5))-FIND("]",CELL("filename",P5))),"_Event_", PMLAlarms[[#This Row],[Name]])</f>
+        <v>DT_PMLAlarms_Event_StateResettingEnter</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -2272,8 +2307,9 @@
       <c r="C8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" t="s">
-        <v>211</v>
+      <c r="D8" t="str" cm="1">
+        <f t="array" aca="1" ref="D8" ca="1">_xlfn.CONCAT("DT_", RIGHT(CELL("filename",P6),LEN(CELL("filename",P6))-FIND("]",CELL("filename",P6))),"_Event_", PMLAlarms[[#This Row],[Name]])</f>
+        <v>DT_PMLAlarms_Event_StateIdleEnter</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -2286,8 +2322,9 @@
       <c r="C9" t="s">
         <v>18</v>
       </c>
-      <c r="D9" t="s">
-        <v>218</v>
+      <c r="D9" t="str" cm="1">
+        <f t="array" aca="1" ref="D9" ca="1">_xlfn.CONCAT("DT_", RIGHT(CELL("filename",P7),LEN(CELL("filename",P7))-FIND("]",CELL("filename",P7))),"_Event_", PMLAlarms[[#This Row],[Name]])</f>
+        <v>DT_PMLAlarms_Event_StateHoldingEnter</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -2298,10 +2335,11 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" t="s">
-        <v>212</v>
+        <v>19</v>
+      </c>
+      <c r="D10" t="str" cm="1">
+        <f t="array" aca="1" ref="D10" ca="1">_xlfn.CONCAT("DT_", RIGHT(CELL("filename",P8),LEN(CELL("filename",P8))-FIND("]",CELL("filename",P8))),"_Event_", PMLAlarms[[#This Row],[Name]])</f>
+        <v>DT_PMLAlarms_Event_StateHeldEnter</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -2314,8 +2352,9 @@
       <c r="C11" t="s">
         <v>18</v>
       </c>
-      <c r="D11" t="s">
-        <v>213</v>
+      <c r="D11" t="str" cm="1">
+        <f t="array" aca="1" ref="D11" ca="1">_xlfn.CONCAT("DT_", RIGHT(CELL("filename",P9),LEN(CELL("filename",P9))-FIND("]",CELL("filename",P9))),"_Event_", PMLAlarms[[#This Row],[Name]])</f>
+        <v>DT_PMLAlarms_Event_StateUnholdingEnter</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -2328,8 +2367,9 @@
       <c r="C12" t="s">
         <v>18</v>
       </c>
-      <c r="D12" t="s">
-        <v>214</v>
+      <c r="D12" t="str" cm="1">
+        <f t="array" aca="1" ref="D12" ca="1">_xlfn.CONCAT("DT_", RIGHT(CELL("filename",P10),LEN(CELL("filename",P10))-FIND("]",CELL("filename",P10))),"_Event_", PMLAlarms[[#This Row],[Name]])</f>
+        <v>DT_PMLAlarms_Event_StateSuspendingEnter</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -2342,8 +2382,9 @@
       <c r="C13" t="s">
         <v>18</v>
       </c>
-      <c r="D13" t="s">
-        <v>219</v>
+      <c r="D13" t="str" cm="1">
+        <f t="array" aca="1" ref="D13" ca="1">_xlfn.CONCAT("DT_", RIGHT(CELL("filename",P11),LEN(CELL("filename",P11))-FIND("]",CELL("filename",P11))),"_Event_", PMLAlarms[[#This Row],[Name]])</f>
+        <v>DT_PMLAlarms_Event_StateSuspendedEnter</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -2356,8 +2397,9 @@
       <c r="C14" t="s">
         <v>18</v>
       </c>
-      <c r="D14" t="s">
-        <v>220</v>
+      <c r="D14" t="str" cm="1">
+        <f t="array" aca="1" ref="D14" ca="1">_xlfn.CONCAT("DT_", RIGHT(CELL("filename",P12),LEN(CELL("filename",P12))-FIND("]",CELL("filename",P12))),"_Event_", PMLAlarms[[#This Row],[Name]])</f>
+        <v>DT_PMLAlarms_Event_StateUnsuspendingEnter</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -2370,8 +2412,9 @@
       <c r="C15" t="s">
         <v>18</v>
       </c>
-      <c r="D15" t="s">
-        <v>221</v>
+      <c r="D15" t="str" cm="1">
+        <f t="array" aca="1" ref="D15" ca="1">_xlfn.CONCAT("DT_", RIGHT(CELL("filename",P13),LEN(CELL("filename",P13))-FIND("]",CELL("filename",P13))),"_Event_", PMLAlarms[[#This Row],[Name]])</f>
+        <v>DT_PMLAlarms_Event_StateStoppingEnter</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -2384,8 +2427,9 @@
       <c r="C16" t="s">
         <v>18</v>
       </c>
-      <c r="D16" t="s">
-        <v>222</v>
+      <c r="D16" t="str" cm="1">
+        <f t="array" aca="1" ref="D16" ca="1">_xlfn.CONCAT("DT_", RIGHT(CELL("filename",P14),LEN(CELL("filename",P14))-FIND("]",CELL("filename",P14))),"_Event_", PMLAlarms[[#This Row],[Name]])</f>
+        <v>DT_PMLAlarms_Event_StateStoppedEnter</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -2398,8 +2442,9 @@
       <c r="C17" t="s">
         <v>18</v>
       </c>
-      <c r="D17" t="s">
-        <v>223</v>
+      <c r="D17" t="str" cm="1">
+        <f t="array" aca="1" ref="D17" ca="1">_xlfn.CONCAT("DT_", RIGHT(CELL("filename",P15),LEN(CELL("filename",P15))-FIND("]",CELL("filename",P15))),"_Event_", PMLAlarms[[#This Row],[Name]])</f>
+        <v>DT_PMLAlarms_Event_StateAbortingEnter</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -2410,10 +2455,11 @@
         <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" t="s">
-        <v>224</v>
+        <v>20</v>
+      </c>
+      <c r="D18" t="str" cm="1">
+        <f t="array" aca="1" ref="D18" ca="1">_xlfn.CONCAT("DT_", RIGHT(CELL("filename",P16),LEN(CELL("filename",P16))-FIND("]",CELL("filename",P16))),"_Event_", PMLAlarms[[#This Row],[Name]])</f>
+        <v>DT_PMLAlarms_Event_StateAbortedEnter</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -2426,8 +2472,9 @@
       <c r="C19" t="s">
         <v>18</v>
       </c>
-      <c r="D19" t="s">
-        <v>225</v>
+      <c r="D19" t="str" cm="1">
+        <f t="array" aca="1" ref="D19" ca="1">_xlfn.CONCAT("DT_", RIGHT(CELL("filename",P17),LEN(CELL("filename",P17))-FIND("]",CELL("filename",P17))),"_Event_", PMLAlarms[[#This Row],[Name]])</f>
+        <v>DT_PMLAlarms_Event_StateClearingEnter</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -2440,8 +2487,9 @@
       <c r="C20" t="s">
         <v>18</v>
       </c>
-      <c r="D20" t="s">
-        <v>226</v>
+      <c r="D20" t="str" cm="1">
+        <f t="array" aca="1" ref="D20" ca="1">_xlfn.CONCAT("DT_", RIGHT(CELL("filename",P18),LEN(CELL("filename",P18))-FIND("]",CELL("filename",P18))),"_Event_", PMLAlarms[[#This Row],[Name]])</f>
+        <v>DT_PMLAlarms_Event_ModeProductionEnter</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -2454,8 +2502,9 @@
       <c r="C21" t="s">
         <v>18</v>
       </c>
-      <c r="D21" t="s">
-        <v>227</v>
+      <c r="D21" t="str" cm="1">
+        <f t="array" aca="1" ref="D21" ca="1">_xlfn.CONCAT("DT_", RIGHT(CELL("filename",P19),LEN(CELL("filename",P19))-FIND("]",CELL("filename",P19))),"_Event_", PMLAlarms[[#This Row],[Name]])</f>
+        <v>DT_PMLAlarms_Event_ModeMaintenanceEnter</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -2468,8 +2517,9 @@
       <c r="C22" t="s">
         <v>18</v>
       </c>
-      <c r="D22" t="s">
-        <v>228</v>
+      <c r="D22" t="str" cm="1">
+        <f t="array" aca="1" ref="D22" ca="1">_xlfn.CONCAT("DT_", RIGHT(CELL("filename",P20),LEN(CELL("filename",P20))-FIND("]",CELL("filename",P20))),"_Event_", PMLAlarms[[#This Row],[Name]])</f>
+        <v>DT_PMLAlarms_Event_ModeManualEnter</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -2482,8 +2532,9 @@
       <c r="C23" t="s">
         <v>18</v>
       </c>
-      <c r="D23" t="s">
-        <v>229</v>
+      <c r="D23" t="str" cm="1">
+        <f t="array" aca="1" ref="D23" ca="1">_xlfn.CONCAT("DT_", RIGHT(CELL("filename",P21),LEN(CELL("filename",P21))-FIND("]",CELL("filename",P21))),"_Event_", PMLAlarms[[#This Row],[Name]])</f>
+        <v>DT_PMLAlarms_Event_ModeCustom01Enter</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -2496,8 +2547,9 @@
       <c r="C24" t="s">
         <v>18</v>
       </c>
-      <c r="D24" t="s">
-        <v>230</v>
+      <c r="D24" t="str" cm="1">
+        <f t="array" aca="1" ref="D24" ca="1">_xlfn.CONCAT("DT_", RIGHT(CELL("filename",P22),LEN(CELL("filename",P22))-FIND("]",CELL("filename",P22))),"_Event_", PMLAlarms[[#This Row],[Name]])</f>
+        <v>DT_PMLAlarms_Event_ModeCustom02Enter</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -2510,8 +2562,9 @@
       <c r="C25" t="s">
         <v>18</v>
       </c>
-      <c r="D25" t="s">
-        <v>231</v>
+      <c r="D25" t="str" cm="1">
+        <f t="array" aca="1" ref="D25" ca="1">_xlfn.CONCAT("DT_", RIGHT(CELL("filename",P23),LEN(CELL("filename",P23))-FIND("]",CELL("filename",P23))),"_Event_", PMLAlarms[[#This Row],[Name]])</f>
+        <v>DT_PMLAlarms_Event_ModeCustom03Enter</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -2524,8 +2577,9 @@
       <c r="C26" t="s">
         <v>18</v>
       </c>
-      <c r="D26" t="s">
-        <v>232</v>
+      <c r="D26" t="str" cm="1">
+        <f t="array" aca="1" ref="D26" ca="1">_xlfn.CONCAT("DT_", RIGHT(CELL("filename",P24),LEN(CELL("filename",P24))-FIND("]",CELL("filename",P24))),"_Event_", PMLAlarms[[#This Row],[Name]])</f>
+        <v>DT_PMLAlarms_Event_ModeCustom04Enter</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -2538,8 +2592,9 @@
       <c r="C27" t="s">
         <v>18</v>
       </c>
-      <c r="D27" t="s">
-        <v>233</v>
+      <c r="D27" t="str" cm="1">
+        <f t="array" aca="1" ref="D27" ca="1">_xlfn.CONCAT("DT_", RIGHT(CELL("filename",P25),LEN(CELL("filename",P25))-FIND("]",CELL("filename",P25))),"_Event_", PMLAlarms[[#This Row],[Name]])</f>
+        <v>DT_PMLAlarms_Event_ModeCustom05Enter</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -2552,8 +2607,9 @@
       <c r="C28" t="s">
         <v>18</v>
       </c>
-      <c r="D28" t="s">
-        <v>234</v>
+      <c r="D28" t="str" cm="1">
+        <f t="array" aca="1" ref="D28" ca="1">_xlfn.CONCAT("DT_", RIGHT(CELL("filename",P26),LEN(CELL("filename",P26))-FIND("]",CELL("filename",P26))),"_Event_", PMLAlarms[[#This Row],[Name]])</f>
+        <v>DT_PMLAlarms_Event_ModeCustom06Enter</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -2566,8 +2622,9 @@
       <c r="C29" t="s">
         <v>18</v>
       </c>
-      <c r="D29" t="s">
-        <v>235</v>
+      <c r="D29" t="str" cm="1">
+        <f t="array" aca="1" ref="D29" ca="1">_xlfn.CONCAT("DT_", RIGHT(CELL("filename",P27),LEN(CELL("filename",P27))-FIND("]",CELL("filename",P27))),"_Event_", PMLAlarms[[#This Row],[Name]])</f>
+        <v>DT_PMLAlarms_Event_ModeCustom07Enter</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -2580,8 +2637,9 @@
       <c r="C30" t="s">
         <v>18</v>
       </c>
-      <c r="D30" t="s">
-        <v>236</v>
+      <c r="D30" t="str" cm="1">
+        <f t="array" aca="1" ref="D30" ca="1">_xlfn.CONCAT("DT_", RIGHT(CELL("filename",P28),LEN(CELL("filename",P28))-FIND("]",CELL("filename",P28))),"_Event_", PMLAlarms[[#This Row],[Name]])</f>
+        <v>DT_PMLAlarms_Event_ModeCustom08Enter</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -2594,8 +2652,9 @@
       <c r="C31" t="s">
         <v>20</v>
       </c>
-      <c r="D31" t="s">
-        <v>237</v>
+      <c r="D31" t="str" cm="1">
+        <f t="array" aca="1" ref="D31" ca="1">_xlfn.CONCAT("DT_", RIGHT(CELL("filename",P29),LEN(CELL("filename",P29))-FIND("]",CELL("filename",P29))),"_Event_", PMLAlarms[[#This Row],[Name]])</f>
+        <v>DT_PMLAlarms_Event_StateUndefinedEnter</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -2608,8 +2667,9 @@
       <c r="C32" t="s">
         <v>19</v>
       </c>
-      <c r="D32" t="s">
-        <v>239</v>
+      <c r="D32" t="str" cm="1">
+        <f t="array" aca="1" ref="D32" ca="1">_xlfn.CONCAT("DT_", RIGHT(CELL("filename",P30),LEN(CELL("filename",P30))-FIND("]",CELL("filename",P30))),"_Event_", PMLAlarms[[#This Row],[Name]])</f>
+        <v>DT_PMLAlarms_Event_StateCommandInvalid</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -2622,8 +2682,9 @@
       <c r="C33" t="s">
         <v>20</v>
       </c>
-      <c r="D33" t="s">
-        <v>238</v>
+      <c r="D33" t="str" cm="1">
+        <f t="array" aca="1" ref="D33" ca="1">_xlfn.CONCAT("DT_", RIGHT(CELL("filename",P31),LEN(CELL("filename",P31))-FIND("]",CELL("filename",P31))),"_Event_", PMLAlarms[[#This Row],[Name]])</f>
+        <v>DT_PMLAlarms_Event_ModeInvalidEnter</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -2636,8 +2697,9 @@
       <c r="C34" t="s">
         <v>20</v>
       </c>
-      <c r="D34" t="s">
-        <v>240</v>
+      <c r="D34" t="str" cm="1">
+        <f t="array" aca="1" ref="D34" ca="1">_xlfn.CONCAT("DT_", RIGHT(CELL("filename",P32),LEN(CELL("filename",P32))-FIND("]",CELL("filename",P32))),"_Event_", PMLAlarms[[#This Row],[Name]])</f>
+        <v>DT_PMLAlarms_Event_ModeCommandInvalid</v>
       </c>
     </row>
   </sheetData>
@@ -2646,9 +2708,26 @@
     <tablePart r:id="rId1"/>
   </tableParts>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="1" id="{32E208FD-CF06-4F87-A284-96544BE28A5D}">
+            <xm:f>IF(IFERROR(MATCH(D3,Translations!$A$2:$A$1000,0),FALSE),FALSE,TRUE)</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC8C8"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>D3:D34</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000000000000}">
           <x14:formula1>
             <xm:f>Helper!$A$1:$A$6</xm:f>
           </x14:formula1>
@@ -2661,14 +2740,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2698,7 +2777,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -2707,10 +2786,10 @@
         <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -2723,8 +2802,9 @@
       <c r="C3" t="s">
         <v>18</v>
       </c>
-      <c r="D3" t="s">
-        <v>246</v>
+      <c r="D3" t="str" cm="1">
+        <f t="array" aca="1" ref="D3" ca="1">_xlfn.CONCAT("DT_", RIGHT(CELL("filename",P1),LEN(CELL("filename",P1))-FIND("]",CELL("filename",P1))),"_Event_", TemplateEventClass[[#This Row],[Name]])</f>
+        <v>DT_TemplateEventClass_Event_Alfa</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -2737,8 +2817,9 @@
       <c r="C4" t="s">
         <v>20</v>
       </c>
-      <c r="D4" t="s">
-        <v>247</v>
+      <c r="D4" t="str" cm="1">
+        <f t="array" aca="1" ref="D4" ca="1">_xlfn.CONCAT("DT_", RIGHT(CELL("filename",P2),LEN(CELL("filename",P2))-FIND("]",CELL("filename",P2))),"_Event_", TemplateEventClass[[#This Row],[Name]])</f>
+        <v>DT_TemplateEventClass_Event_Bravo</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -2751,19 +2832,38 @@
       <c r="C5" t="s">
         <v>19</v>
       </c>
-      <c r="D5" t="s">
-        <v>26</v>
+      <c r="D5" t="str" cm="1">
+        <f t="array" aca="1" ref="D5" ca="1">_xlfn.CONCAT("DT_", RIGHT(CELL("filename",P3),LEN(CELL("filename",P3))-FIND("]",CELL("filename",P3))),"_Event_", TemplateEventClass[[#This Row],[Name]])</f>
+        <v>DT_TemplateEventClass_Event_Charlie</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="1" id="{596DEF61-79EE-448F-9A36-09C9B1FC0B36}">
+            <xm:f>IF(IFERROR(MATCH(D3,Translations!$A$2:$A$1000,0),FALSE),FALSE,TRUE)</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC8C8"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>D3:D5</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0500-000000000000}">
           <x14:formula1>
             <xm:f>Helper!$A$1:$A$6</xm:f>
           </x14:formula1>
@@ -2776,8 +2876,8 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
@@ -2802,31 +2902,31 @@
         <v>77</v>
       </c>
       <c r="B2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B4" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B5" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -2834,23 +2934,23 @@
         <v>37</v>
       </c>
       <c r="B6" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B8" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -2858,23 +2958,71 @@
         <v>37</v>
       </c>
       <c r="B9" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B10" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B11" t="s">
-        <v>217</v>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>162</v>
+      </c>
+      <c r="B13" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>160</v>
+      </c>
+      <c r="B14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>162</v>
+      </c>
+      <c r="B15" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>160</v>
+      </c>
+      <c r="B16" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>162</v>
+      </c>
+      <c r="B17" t="s">
+        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -2886,7 +3034,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2935,7 +3083,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2950,10 +3098,10 @@
         <v>11</v>
       </c>
       <c r="B1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -2961,10 +3109,10 @@
         <v>37</v>
       </c>
       <c r="B2">
-        <v>-1623967270</v>
+        <v>1998170941</v>
       </c>
       <c r="C2">
-        <v>2098378420</v>
+        <v>-1925411841</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -3013,29 +3161,29 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B7">
-        <v>-1101311541</v>
+        <v>-112183645</v>
       </c>
       <c r="C7">
-        <v>-1307371275</v>
+        <v>-1061140768</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B8">
-        <v>-1489741019</v>
+        <v>-1476574130</v>
       </c>
       <c r="C8">
-        <v>-1307371275</v>
+        <v>-97488637</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B9">
         <v>1259079353</v>
@@ -3046,7 +3194,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B10">
         <v>1688958672</v>
@@ -3057,7 +3205,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B11">
         <v>-1825382818</v>

--- a/PML_Base_PLC_Project/PLC_PML/Base/01_PML/98_EventDefinitions/PMLBase_TMCTemplate.xlsx
+++ b/PML_Base_PLC_Project/PLC_PML/Base/01_PML/98_EventDefinitions/PMLBase_TMCTemplate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Beckhoff_Work\github\PML_Base_PLC_BenS_Development\PML_Base_PLC_Project\PLC_PML\Base\01_PML\98_EventDefinitions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KeithBa\source\repos\BeckhoffUS\PML_Base_Development\pml-base-plc-development\PML_Base_PLC_Project\PLC_PML\Base\01_PML\98_EventDefinitions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9798694-E8D4-4FFA-847D-0CC80E3D3926}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC7EAD39-D043-40B8-A7A3-C5A0547CC2B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="1155" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Translations" sheetId="2" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="226">
   <si>
     <t>Key</t>
   </si>
@@ -708,15 +708,6 @@
     <t>DT_BaseAlarms_Event_ComponentError</t>
   </si>
   <si>
-    <t>SubmoduleAborted</t>
-  </si>
-  <si>
-    <t>DT_BaseAlarms_Event_SubmoduleAborted</t>
-  </si>
-  <si>
-    <t>{0} - Submodule aborted during operation - Submodule Name: {1}</t>
-  </si>
-  <si>
     <t>{0} - Component error in module during operation - Component Name: {1}</t>
   </si>
   <si>
@@ -739,6 +730,18 @@
   </si>
   <si>
     <t>{DD613D9B-2D36-4D21-9065-3987280E65BE}</t>
+  </si>
+  <si>
+    <t>SubModuleError</t>
+  </si>
+  <si>
+    <t>DT_BaseAlarms_Event_SubModuleError</t>
+  </si>
+  <si>
+    <t>{0} - SubModule Error during operation - Submodule Name: {1}</t>
+  </si>
+  <si>
+    <t>{FA67A42A-DB7C-49E5-90EF-5F1EF533D41D}</t>
   </si>
 </sst>
 </file>
@@ -919,8 +922,8 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="HiddenDataTypes" displayName="HiddenDataTypes" ref="A1:B17" totalsRowShown="0">
-  <autoFilter ref="A1:B17" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="HiddenDataTypes" displayName="HiddenDataTypes" ref="A1:B18" totalsRowShown="0">
+  <autoFilter ref="A1:B18" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="EventClass"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="Guid"/>
@@ -1250,11 +1253,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C48" sqref="C48"/>
+      <selection pane="bottomRight" activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1520,7 +1523,7 @@
         <v>178</v>
       </c>
       <c r="C21" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E21" t="s">
         <v>125</v>
@@ -1792,10 +1795,10 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="C46" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -1803,15 +1806,15 @@
         <v>213</v>
       </c>
       <c r="C47" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C48" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -1873,7 +1876,7 @@
         <v>162</v>
       </c>
       <c r="C3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D3" t="s">
         <v>164</v>
@@ -1884,7 +1887,7 @@
         <v>160</v>
       </c>
       <c r="C4" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D4" t="s">
         <v>159</v>
@@ -2037,11 +2040,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2088,7 +2091,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -2098,7 +2101,7 @@
       </c>
       <c r="D3" t="str" cm="1">
         <f t="array" aca="1" ref="D3" ca="1">_xlfn.CONCAT("DT_", RIGHT(CELL("filename",P5),LEN(CELL("filename",P5))-FIND("]",CELL("filename",P5))),"_Event_", BaseAlarms[[#This Row],[Name]])</f>
-        <v>DT_BaseAlarms_Event_SubmoduleAborted</v>
+        <v>DT_BaseAlarms_Event_SubModuleError</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -2118,7 +2121,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -2877,7 +2880,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
@@ -3022,7 +3025,15 @@
         <v>162</v>
       </c>
       <c r="B17" t="s">
-        <v>219</v>
+        <v>216</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>162</v>
+      </c>
+      <c r="B18" t="s">
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -3164,10 +3175,10 @@
         <v>162</v>
       </c>
       <c r="B7">
-        <v>-112183645</v>
+        <v>-668640524</v>
       </c>
       <c r="C7">
-        <v>-1061140768</v>
+        <v>-1957413921</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">

--- a/PML_Base_PLC_Project/PLC_PML/Base/01_PML/98_EventDefinitions/PMLBase_TMCTemplate.xlsx
+++ b/PML_Base_PLC_Project/PLC_PML/Base/01_PML/98_EventDefinitions/PMLBase_TMCTemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KeithBa\source\repos\BeckhoffUS\PML_Base_Development\pml-base-plc-development\PML_Base_PLC_Project\PLC_PML\Base\01_PML\98_EventDefinitions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC7EAD39-D043-40B8-A7A3-C5A0547CC2B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBAADC20-FED3-454F-A16D-71D2612DCFA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="1155" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,10 +18,11 @@
     <sheet name="System" sheetId="7" r:id="rId3"/>
     <sheet name="BaseAlarms" sheetId="16" r:id="rId4"/>
     <sheet name="PMLAlarms" sheetId="15" r:id="rId5"/>
-    <sheet name="TemplateEventClass" sheetId="8" r:id="rId6"/>
-    <sheet name="HiddenDataTypes" sheetId="5" r:id="rId7"/>
-    <sheet name="Helper" sheetId="4" state="hidden" r:id="rId8"/>
-    <sheet name="EventClassHashTable" sheetId="13" state="hidden" r:id="rId9"/>
+    <sheet name="ProductionData" sheetId="17" r:id="rId6"/>
+    <sheet name="TemplateEventClass" sheetId="8" r:id="rId7"/>
+    <sheet name="HiddenDataTypes" sheetId="5" r:id="rId8"/>
+    <sheet name="Helper" sheetId="4" state="hidden" r:id="rId9"/>
+    <sheet name="EventClassHashTable" sheetId="13" state="hidden" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -64,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="241">
   <si>
     <t>Key</t>
   </si>
@@ -742,6 +743,51 @@
   </si>
   <si>
     <t>{FA67A42A-DB7C-49E5-90EF-5F1EF533D41D}</t>
+  </si>
+  <si>
+    <t>ProductionData</t>
+  </si>
+  <si>
+    <t>{F25DAB20-2AFF-4DFA-93A2-6BEFAF5EA238}</t>
+  </si>
+  <si>
+    <t>DT_ProductionData</t>
+  </si>
+  <si>
+    <t>TargetRateChanged</t>
+  </si>
+  <si>
+    <t>ShiftCompleted</t>
+  </si>
+  <si>
+    <t>BehindScheduleAcceptable</t>
+  </si>
+  <si>
+    <t>BehindScheduleWarning</t>
+  </si>
+  <si>
+    <t>DT_ProductionData_Event_TargetRateChanged</t>
+  </si>
+  <si>
+    <t>DT_ProductionData_Event_ShiftCompleted</t>
+  </si>
+  <si>
+    <t>DT_ProductionData_Event_BehindScheduleAcceptable</t>
+  </si>
+  <si>
+    <t>DT_ProductionData_Event_BehindScheduleWarning</t>
+  </si>
+  <si>
+    <t>{0} - Target production rate updated - New Rate: {1}</t>
+  </si>
+  <si>
+    <t>{0} - Production shoft completed - Products Produced: {1}</t>
+  </si>
+  <si>
+    <t>{0} - Production is behind schedule within 'Acceptable' window - Rate required to meet shift taraget: {1} PPM</t>
+  </si>
+  <si>
+    <t>{0} - Production is behind schedule within 'Warning' window - Rate required to meet shift taraget: {1} PPM</t>
   </si>
 </sst>
 </file>
@@ -783,7 +829,14 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="5">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC8C8"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -832,8 +885,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Translations" displayName="Translations" ref="A1:K48" totalsRowShown="0">
-  <autoFilter ref="A1:K48" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Translations" displayName="Translations" ref="A1:K52" totalsRowShown="0">
+  <autoFilter ref="A1:K52" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Key"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="German (1031)"/>
@@ -851,9 +904,21 @@
 </table>
 </file>
 
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="EventClassHashTable" displayName="EventClassHashTable" ref="A1:C12" totalsRowShown="0">
+  <autoFilter ref="A1:C12" xr:uid="{00000000-0009-0000-0100-00000C000000}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="Name"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="EventClassHash"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="TranslationHash"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="EventClasses" displayName="EventClasses" ref="A1:E35" totalsRowShown="0">
-  <autoFilter ref="A1:E35" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="EventClasses" displayName="EventClasses" ref="A1:E36" totalsRowShown="0">
+  <autoFilter ref="A1:E36" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Name"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Namespace"/>
@@ -908,6 +973,20 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{B17DE993-EBB5-4913-85C6-EF3CD0CC60F7}" name="ProductionData" displayName="ProductionData" ref="A1:E6" totalsRowShown="0">
+  <autoFilter ref="A1:E6" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{C578FCC0-4483-49C2-BDE1-CE0EFA70873A}" name="Name"/>
+    <tableColumn id="2" xr3:uid="{ED15CA3E-178B-4DB9-80E9-BC9D704C511B}" name="Id"/>
+    <tableColumn id="3" xr3:uid="{5516D589-2F4F-4CAF-8C06-363D4DB7D43C}" name="Severity"/>
+    <tableColumn id="4" xr3:uid="{A25F1357-B173-4FE4-909E-37589E690879}" name="Display Text"/>
+    <tableColumn id="5" xr3:uid="{F8D1B4BE-62F4-4CDC-9020-9FF1B4F614CF}" name="Comment"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="TemplateEventClass" displayName="TemplateEventClass" ref="A1:E5" totalsRowShown="0">
   <autoFilter ref="A1:E5" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
   <tableColumns count="5">
@@ -921,7 +1000,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="HiddenDataTypes" displayName="HiddenDataTypes" ref="A1:B18" totalsRowShown="0">
   <autoFilter ref="A1:B18" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="2">
@@ -932,23 +1011,11 @@
 </table>
 </file>
 
-<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Helper" displayName="Helper" ref="A1:A6" totalsRowShown="0">
   <autoFilter ref="A1:A6" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="Severity"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="EventClassHashTable" displayName="EventClassHashTable" ref="A1:C11" totalsRowShown="0">
-  <autoFilter ref="A1:C11" xr:uid="{00000000-0009-0000-0100-00000C000000}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="Name"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="EventClassHash"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="TranslationHash"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1251,13 +1318,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K48"/>
+  <dimension ref="A1:K52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C51" sqref="C51"/>
+      <selection pane="bottomRight" activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1817,6 +1884,38 @@
         <v>219</v>
       </c>
     </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>233</v>
+      </c>
+      <c r="C49" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>234</v>
+      </c>
+      <c r="C50" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>235</v>
+      </c>
+      <c r="C51" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>236</v>
+      </c>
+      <c r="C52" t="s">
+        <v>240</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -1826,9 +1925,160 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2">
+        <v>1998170941</v>
+      </c>
+      <c r="C2">
+        <v>-1925411841</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3">
+        <v>1054446003</v>
+      </c>
+      <c r="C3">
+        <v>662966212</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4">
+        <v>1691620521</v>
+      </c>
+      <c r="C4">
+        <v>1845685619</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5">
+        <v>2038111688</v>
+      </c>
+      <c r="C5">
+        <v>46465576</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6">
+        <v>-1810971161</v>
+      </c>
+      <c r="C6">
+        <v>1659002869</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>162</v>
+      </c>
+      <c r="B7">
+        <v>-668640524</v>
+      </c>
+      <c r="C7">
+        <v>-1957413921</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>160</v>
+      </c>
+      <c r="B8">
+        <v>-1476574130</v>
+      </c>
+      <c r="C8">
+        <v>-97488637</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>168</v>
+      </c>
+      <c r="B9">
+        <v>1259079353</v>
+      </c>
+      <c r="C9">
+        <v>-1307371275</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>166</v>
+      </c>
+      <c r="B10">
+        <v>1688958672</v>
+      </c>
+      <c r="C10">
+        <v>-1307371275</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>167</v>
+      </c>
+      <c r="B11">
+        <v>-1825382818</v>
+      </c>
+      <c r="C11">
+        <v>-1307371275</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>226</v>
+      </c>
+      <c r="B12">
+        <v>905478954</v>
+      </c>
+      <c r="C12">
+        <v>730059314</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
@@ -1836,10 +2086,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1891,6 +2141,17 @@
       </c>
       <c r="D4" t="s">
         <v>159</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>226</v>
+      </c>
+      <c r="C5" t="s">
+        <v>227</v>
+      </c>
+      <c r="D5" t="s">
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -2743,6 +3004,157 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75209924-C3A2-4B36-BD60-A81741FEAB56}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="D3" sqref="D3:D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="3" width="11" customWidth="1"/>
+    <col min="4" max="4" width="100.7109375" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>229</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="str" cm="1">
+        <f t="array" aca="1" ref="D3" ca="1">_xlfn.CONCAT("DT_", RIGHT(CELL("filename",P1),LEN(CELL("filename",P1))-FIND("]",CELL("filename",P1))),"_Event_", ProductionData[[#This Row],[Name]])</f>
+        <v>DT_ProductionData_Event_TargetRateChanged</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>230</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="str" cm="1">
+        <f t="array" aca="1" ref="D4" ca="1">_xlfn.CONCAT("DT_", RIGHT(CELL("filename",P2),LEN(CELL("filename",P2))-FIND("]",CELL("filename",P2))),"_Event_", ProductionData[[#This Row],[Name]])</f>
+        <v>DT_ProductionData_Event_ShiftCompleted</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>231</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="str" cm="1">
+        <f t="array" aca="1" ref="D5" ca="1">_xlfn.CONCAT("DT_", RIGHT(CELL("filename",P3),LEN(CELL("filename",P3))-FIND("]",CELL("filename",P3))),"_Event_", ProductionData[[#This Row],[Name]])</f>
+        <v>DT_ProductionData_Event_BehindScheduleAcceptable</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>232</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="str" cm="1">
+        <f t="array" aca="1" ref="D6" ca="1">_xlfn.CONCAT("DT_", RIGHT(CELL("filename",P4),LEN(CELL("filename",P4))-FIND("]",CELL("filename",P4))),"_Event_", ProductionData[[#This Row],[Name]])</f>
+        <v>DT_ProductionData_Event_BehindScheduleWarning</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="1" id="{04C4F3F4-B798-4F29-887A-B5E01DB39E23}">
+            <xm:f>IF(IFERROR(MATCH(D3,Translations!$A$2:$A$1000,0),FALSE),FALSE,TRUE)</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC8C8"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>D3:D6</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4B49675A-B785-4340-B070-972FE3EC25B2}">
+          <x14:formula1>
+            <xm:f>Helper!$A$1:$A$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>C1:C6</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
@@ -2878,7 +3290,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:B18"/>
   <sheetViews>
@@ -3044,7 +3456,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:A6"/>
   <sheetViews>
@@ -3091,144 +3503,4 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:C11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="3" width="11" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2">
-        <v>1998170941</v>
-      </c>
-      <c r="C2">
-        <v>-1925411841</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B3">
-        <v>1054446003</v>
-      </c>
-      <c r="C3">
-        <v>662966212</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4">
-        <v>1691620521</v>
-      </c>
-      <c r="C4">
-        <v>1845685619</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5">
-        <v>2038111688</v>
-      </c>
-      <c r="C5">
-        <v>46465576</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6">
-        <v>-1810971161</v>
-      </c>
-      <c r="C6">
-        <v>1659002869</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>162</v>
-      </c>
-      <c r="B7">
-        <v>-668640524</v>
-      </c>
-      <c r="C7">
-        <v>-1957413921</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>160</v>
-      </c>
-      <c r="B8">
-        <v>-1476574130</v>
-      </c>
-      <c r="C8">
-        <v>-97488637</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>168</v>
-      </c>
-      <c r="B9">
-        <v>1259079353</v>
-      </c>
-      <c r="C9">
-        <v>-1307371275</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>166</v>
-      </c>
-      <c r="B10">
-        <v>1688958672</v>
-      </c>
-      <c r="C10">
-        <v>-1307371275</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>167</v>
-      </c>
-      <c r="B11">
-        <v>-1825382818</v>
-      </c>
-      <c r="C11">
-        <v>-1307371275</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
 </file>